--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>22.00911826159811</v>
+        <v>156.699858805</v>
       </c>
       <c r="R2">
-        <v>198.082064354383</v>
+        <v>1410.298729245</v>
       </c>
       <c r="S2">
-        <v>0.0005890960693255537</v>
+        <v>0.005133923926692581</v>
       </c>
       <c r="T2">
-        <v>0.0005890960693255538</v>
+        <v>0.00513392392669258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>1486.410142926301</v>
+        <v>2677.261241202334</v>
       </c>
       <c r="R3">
-        <v>13377.69128633671</v>
+        <v>24095.351170821</v>
       </c>
       <c r="S3">
-        <v>0.03978525455657837</v>
+        <v>0.08771453687983008</v>
       </c>
       <c r="T3">
-        <v>0.03978525455657838</v>
+        <v>0.08771453687983008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>866.9683736463566</v>
+        <v>671.4197434723333</v>
       </c>
       <c r="R4">
-        <v>7802.715362817208</v>
+        <v>6042.777691251</v>
       </c>
       <c r="S4">
-        <v>0.02320527588039558</v>
+        <v>0.02199758131343268</v>
       </c>
       <c r="T4">
-        <v>0.02320527588039558</v>
+        <v>0.02199758131343267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>4.763071994001778</v>
+        <v>0.330056622</v>
       </c>
       <c r="R5">
-        <v>42.867647946016</v>
+        <v>2.970509598</v>
       </c>
       <c r="S5">
-        <v>0.0001274883871416543</v>
+        <v>1.081357444589517E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001274883871416544</v>
+        <v>1.081357444589517E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.155757</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>36.467271</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.02380950848190151</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.02380950848190151</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>8.225553594841001</v>
+        <v>0.566849108</v>
       </c>
       <c r="R6">
-        <v>74.02998235356901</v>
+        <v>5.101641972</v>
       </c>
       <c r="S6">
-        <v>0.0002201651712327917</v>
+        <v>1.857155597062152E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002201651712327918</v>
+        <v>1.857155597062152E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>36.467271</v>
       </c>
       <c r="I7">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J7">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>555.521859132751</v>
+        <v>32.514644275095</v>
       </c>
       <c r="R7">
-        <v>4999.69673219476</v>
+        <v>292.631798475855</v>
       </c>
       <c r="S7">
-        <v>0.01486909833232752</v>
+        <v>0.001065270329436199</v>
       </c>
       <c r="T7">
-        <v>0.01486909833232752</v>
+        <v>0.001065270329436198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>324.01547111967</v>
+        <v>555.521859132751</v>
       </c>
       <c r="R8">
-        <v>2916.13924007703</v>
+        <v>4999.69673219476</v>
       </c>
       <c r="S8">
-        <v>0.008672598246260014</v>
+        <v>0.01820044374099573</v>
       </c>
       <c r="T8">
-        <v>0.008672598246260016</v>
+        <v>0.01820044374099573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>1.780121470432</v>
+        <v>139.317126925081</v>
       </c>
       <c r="R9">
-        <v>16.021093233888</v>
+        <v>1253.854142325729</v>
       </c>
       <c r="S9">
-        <v>4.764673208118657E-05</v>
+        <v>0.004564417203520279</v>
       </c>
       <c r="T9">
-        <v>4.764673208118659E-05</v>
+        <v>0.004564417203520278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.0671593333333</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>453.201478</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.2958955835892216</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.2958955835892217</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>102.2240750219602</v>
+        <v>0.06848553493800001</v>
       </c>
       <c r="R10">
-        <v>920.016675197642</v>
+        <v>0.6163698144420001</v>
       </c>
       <c r="S10">
-        <v>0.002736129638184998</v>
+        <v>2.243776919340275E-06</v>
       </c>
       <c r="T10">
-        <v>0.002736129638184999</v>
+        <v>2.243776919340275E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.0671593333333</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>453.201478</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.2958955835892216</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.2958955835892217</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>6903.815961997007</v>
+        <v>0.117619104732</v>
       </c>
       <c r="R11">
-        <v>62134.34365797307</v>
+        <v>1.058571942588</v>
       </c>
       <c r="S11">
-        <v>0.1847875411554148</v>
+        <v>3.853529547663562E-06</v>
       </c>
       <c r="T11">
-        <v>0.1847875411554148</v>
+        <v>3.85352954766356E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H12">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I12">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J12">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>4026.741962849393</v>
+        <v>395.0765702294217</v>
       </c>
       <c r="R12">
-        <v>36240.67766564454</v>
+        <v>3555.689132064795</v>
       </c>
       <c r="S12">
-        <v>0.1077797771954267</v>
+        <v>0.01294380908983787</v>
       </c>
       <c r="T12">
-        <v>0.1077797771954267</v>
+        <v>0.01294380908983787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,61 +1225,61 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H13">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I13">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J13">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>22.12267765853155</v>
+        <v>6749.994523598335</v>
       </c>
       <c r="R13">
-        <v>199.104098926784</v>
+        <v>60749.95071238501</v>
       </c>
       <c r="S13">
-        <v>0.0005921356001951384</v>
+        <v>0.2211486254934624</v>
       </c>
       <c r="T13">
-        <v>0.0005921356001951386</v>
+        <v>0.2211486254934624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.743353333333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>29.23006</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>6.593129085815556</v>
+        <v>1692.804393432571</v>
       </c>
       <c r="R14">
-        <v>59.33816177233999</v>
+        <v>15235.23954089314</v>
       </c>
       <c r="S14">
-        <v>0.0001764716960872881</v>
+        <v>0.05546098793534136</v>
       </c>
       <c r="T14">
-        <v>0.0001764716960872881</v>
+        <v>0.05546098793534135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.743353333333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>29.23006</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>445.2742645250822</v>
+        <v>0.8321490472020001</v>
       </c>
       <c r="R15">
-        <v>4007.46838072574</v>
+        <v>7.489341424818</v>
       </c>
       <c r="S15">
-        <v>0.01191821116528937</v>
+        <v>2.726352108154207E-05</v>
       </c>
       <c r="T15">
-        <v>0.01191821116528937</v>
+        <v>2.726352108154206E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.743353333333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>29.23006</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.01908432801282251</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>259.7121035395333</v>
+        <v>1.429157646561334</v>
       </c>
       <c r="R16">
-        <v>2337.408931855799</v>
+        <v>12.862418819052</v>
       </c>
       <c r="S16">
-        <v>0.006951454280581482</v>
+        <v>4.682318601082731E-05</v>
       </c>
       <c r="T16">
-        <v>0.006951454280581484</v>
+        <v>4.682318601082729E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H17">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I17">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J17">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>1.426842644408889</v>
+        <v>18.699153598115</v>
       </c>
       <c r="R17">
-        <v>12.84158379968</v>
+        <v>168.292382383035</v>
       </c>
       <c r="S17">
-        <v>3.819087086437063E-05</v>
+        <v>0.0006126363660973451</v>
       </c>
       <c r="T17">
-        <v>3.819087086437065E-05</v>
+        <v>0.000612636366097345</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.5917893333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H18">
-        <v>427.775368</v>
+        <v>20.972307</v>
       </c>
       <c r="I18">
-        <v>0.2792948573734662</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J18">
-        <v>0.2792948573734662</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>96.48896447548356</v>
+        <v>319.4803081081337</v>
       </c>
       <c r="R18">
-        <v>868.4006802793519</v>
+        <v>2875.322772973203</v>
       </c>
       <c r="S18">
-        <v>0.002582623666708991</v>
+        <v>0.01046706493810274</v>
       </c>
       <c r="T18">
-        <v>0.002582623666708992</v>
+        <v>0.01046706493810274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.5917893333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H19">
-        <v>427.775368</v>
+        <v>20.972307</v>
       </c>
       <c r="I19">
-        <v>0.2792948573734662</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J19">
-        <v>0.2792948573734662</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,43 +1615,43 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>6516.488928457431</v>
+        <v>80.12120117874366</v>
       </c>
       <c r="R19">
-        <v>58648.40035611688</v>
+        <v>721.090810608693</v>
       </c>
       <c r="S19">
-        <v>0.1744203456008427</v>
+        <v>0.002624993761345859</v>
       </c>
       <c r="T19">
-        <v>0.1744203456008427</v>
+        <v>0.002624993761345859</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>142.5917893333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>427.775368</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.2792948573734662</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.2792948573734662</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>3800.828348134693</v>
+        <v>0.039385992546</v>
       </c>
       <c r="R20">
-        <v>34207.45513321224</v>
+        <v>0.354473932914</v>
       </c>
       <c r="S20">
-        <v>0.1017329732819884</v>
+        <v>1.290394841772462E-06</v>
       </c>
       <c r="T20">
-        <v>0.1017329732819885</v>
+        <v>1.290394841772462E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>142.5917893333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>427.775368</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.2792948573734662</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.2792948573734662</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>20.88152187474489</v>
+        <v>0.06764268084400001</v>
       </c>
       <c r="R21">
-        <v>187.933696872704</v>
+        <v>0.6087841275960001</v>
       </c>
       <c r="S21">
-        <v>0.0005589148239260073</v>
+        <v>2.216162671102297E-06</v>
       </c>
       <c r="T21">
-        <v>0.0005589148239260074</v>
+        <v>2.216162671102296E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>162.458898</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H22">
-        <v>487.376694</v>
+        <v>563.430527</v>
       </c>
       <c r="I22">
-        <v>0.3182086076491469</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J22">
-        <v>0.318208607649147</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>109.932632945674</v>
+        <v>502.3612312293483</v>
       </c>
       <c r="R22">
-        <v>989.3936965110661</v>
+        <v>4521.251081064134</v>
       </c>
       <c r="S22">
-        <v>0.00294245690305101</v>
+        <v>0.01645875346997314</v>
       </c>
       <c r="T22">
-        <v>0.002942456903051011</v>
+        <v>0.01645875346997314</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>162.458898</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H23">
-        <v>487.376694</v>
+        <v>563.430527</v>
       </c>
       <c r="I23">
-        <v>0.3182086076491469</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J23">
-        <v>0.318208607649147</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>7424.421946705414</v>
+        <v>8582.983186517731</v>
       </c>
       <c r="R23">
-        <v>66819.79752034873</v>
+        <v>77246.84867865959</v>
       </c>
       <c r="S23">
-        <v>0.1987220811771382</v>
+        <v>0.2812024406384309</v>
       </c>
       <c r="T23">
-        <v>0.1987220811771382</v>
+        <v>0.2812024406384309</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>162.458898</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H24">
-        <v>487.376694</v>
+        <v>563.430527</v>
       </c>
       <c r="I24">
-        <v>0.3182086076491469</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J24">
-        <v>0.318208607649147</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>4330.39228844838</v>
+        <v>2152.492360712275</v>
       </c>
       <c r="R24">
-        <v>38973.53059603542</v>
+        <v>19372.43124641047</v>
       </c>
       <c r="S24">
-        <v>0.1159072819474866</v>
+        <v>0.07052164639430508</v>
       </c>
       <c r="T24">
-        <v>0.1159072819474867</v>
+        <v>0.07052164639430508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>162.458898</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H25">
-        <v>487.376694</v>
+        <v>563.430527</v>
       </c>
       <c r="I25">
-        <v>0.3182086076491469</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J25">
-        <v>0.318208607649147</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>23.790914246848</v>
+        <v>1.058122529706</v>
       </c>
       <c r="R25">
-        <v>214.118228221632</v>
+        <v>9.523102767354001</v>
       </c>
       <c r="S25">
-        <v>0.0006367876214711116</v>
+        <v>3.466704191093234E-05</v>
       </c>
       <c r="T25">
-        <v>0.0006367876214711119</v>
+        <v>3.466704191093233E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>187.8101756666667</v>
+      </c>
+      <c r="H26">
+        <v>563.430527</v>
+      </c>
+      <c r="I26">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="J26">
+        <v>0.3682770457585942</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>1.817251259750667</v>
+      </c>
+      <c r="R26">
+        <v>16.355261337756</v>
+      </c>
+      <c r="S26">
+        <v>5.953821397411809E-05</v>
+      </c>
+      <c r="T26">
+        <v>5.953821397411808E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H27">
+        <v>290.186471</v>
+      </c>
+      <c r="I27">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J27">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.674835</v>
+      </c>
+      <c r="N27">
+        <v>8.024505</v>
+      </c>
+      <c r="O27">
+        <v>0.0446912281379651</v>
+      </c>
+      <c r="P27">
+        <v>0.04469122813796509</v>
+      </c>
+      <c r="Q27">
+        <v>258.7336430524283</v>
+      </c>
+      <c r="R27">
+        <v>2328.602787471855</v>
+      </c>
+      <c r="S27">
+        <v>0.008476834955927957</v>
+      </c>
+      <c r="T27">
+        <v>0.008476834955927956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H28">
+        <v>290.186471</v>
+      </c>
+      <c r="I28">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J28">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N28">
+        <v>137.100929</v>
+      </c>
+      <c r="O28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="P28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="Q28">
+        <v>4420.537195259062</v>
+      </c>
+      <c r="R28">
+        <v>39784.83475733156</v>
+      </c>
+      <c r="S28">
+        <v>0.1448291137506173</v>
+      </c>
+      <c r="T28">
+        <v>0.1448291137506173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H29">
+        <v>290.186471</v>
+      </c>
+      <c r="I29">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J29">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.46099966666667</v>
+      </c>
+      <c r="N29">
+        <v>34.382999</v>
+      </c>
+      <c r="O29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="P29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="Q29">
+        <v>1108.609015800725</v>
+      </c>
+      <c r="R29">
+        <v>9977.481142206529</v>
+      </c>
+      <c r="S29">
+        <v>0.03632111984637507</v>
+      </c>
+      <c r="T29">
+        <v>0.03632111984637507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H30">
+        <v>290.186471</v>
+      </c>
+      <c r="I30">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J30">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.005634</v>
+      </c>
+      <c r="N30">
+        <v>0.016902</v>
+      </c>
+      <c r="O30">
+        <v>9.413305094680434E-05</v>
+      </c>
+      <c r="P30">
+        <v>9.413305094680433E-05</v>
+      </c>
+      <c r="Q30">
+        <v>0.5449701925379999</v>
+      </c>
+      <c r="R30">
+        <v>4.904731732841999</v>
+      </c>
+      <c r="S30">
+        <v>1.785474174732203E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.785474174732203E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>96.72882366666666</v>
+      </c>
+      <c r="H31">
+        <v>290.186471</v>
+      </c>
+      <c r="I31">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="J31">
+        <v>0.1896755875618219</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.029028</v>
+      </c>
+      <c r="O31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q31">
+        <v>0.9359480977986666</v>
+      </c>
+      <c r="R31">
+        <v>8.423532880188001</v>
+      </c>
+      <c r="S31">
+        <v>3.066426715425771E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.066426715425771E-05</v>
       </c>
     </row>
   </sheetData>
